--- a/model/Outputs/8. Fixed RE/No PV/Output Files/10/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/10/Output_26_45.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304299.3117307709</v>
+        <v>936184138.0308166</v>
       </c>
     </row>
   </sheetData>
